--- a/data/trans_dic/P78A_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 62,35</t>
+          <t>4,28; 61,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,21; 96,21</t>
+          <t>85,94; 96,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,51; 90,82</t>
+          <t>69,53; 90,46</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,59; 94,95</t>
+          <t>49,83; 95,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,51; 77,35</t>
+          <t>63,15; 77,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,43; 79,41</t>
+          <t>65,14; 79,6</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,69; 100,0</t>
+          <t>49,35; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,96; 95,68</t>
+          <t>84,7; 95,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,73; 94,77</t>
+          <t>83,48; 94,66</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,61; 98,52</t>
+          <t>34,41; 98,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,33; 89,48</t>
+          <t>76,88; 89,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,75; 88,84</t>
+          <t>74,82; 88,53</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,31; 100,0</t>
+          <t>13,68; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,04; 96,67</t>
+          <t>84,09; 96,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,74; 94,99</t>
+          <t>80,65; 94,93</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,93; 93,73</t>
+          <t>42,29; 93,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,03; 94,11</t>
+          <t>82,26; 93,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>75,68; 91,44</t>
+          <t>75,47; 91,56</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>62,37; 100,0</t>
+          <t>61,73; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,18; 98,04</t>
+          <t>74,55; 97,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,6; 98,26</t>
+          <t>77,73; 98,24</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70,31; 100,0</t>
+          <t>79,17; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>86,1; 95,19</t>
+          <t>86,44; 95,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,56; 95,47</t>
+          <t>87,53; 95,23</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>67,64; 86,55</t>
+          <t>67,63; 86,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>84,13; 92,29</t>
+          <t>84,33; 92,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>83,2; 90,51</t>
+          <t>83,13; 90,71</t>
         </is>
       </c>
     </row>
